--- a/data/output/FV2304_FV2210/UTILMD/11145.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11145.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9056" uniqueCount="567">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9077" uniqueCount="567">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1879,6 +1879,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U414" totalsRowShown="0">
+  <autoFilter ref="A1:U414"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2168,7 +2198,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21325,5 +21358,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11145.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11145.xlsx
@@ -3520,7 +3520,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -6010,7 +6010,7 @@
         <v>522</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6164,7 +6164,7 @@
         <v>523</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6478,7 +6478,7 @@
         <v>522</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7042,7 +7042,7 @@
         <v>526</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7572,7 +7572,7 @@
         <v>528</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -8064,7 +8064,7 @@
         <v>530</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -8460,7 +8460,7 @@
         <v>531</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8710,7 +8710,7 @@
         <v>533</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8898,7 +8898,7 @@
         <v>534</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -9902,7 +9902,7 @@
         <v>535</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -10190,7 +10190,7 @@
         <v>536</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -10436,7 +10436,7 @@
         <v>537</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10928,7 +10928,7 @@
         <v>534</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11500,7 +11500,7 @@
         <v>534</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11788,7 +11788,7 @@
         <v>539</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -12074,7 +12074,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -12468,7 +12468,7 @@
         <v>541</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12606,7 +12606,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12758,7 +12758,7 @@
         <v>542</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -14064,7 +14064,7 @@
         <v>545</v>
       </c>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -15242,7 +15242,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -15390,7 +15390,7 @@
         <v>546</v>
       </c>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -15598,7 +15598,7 @@
         <v>547</v>
       </c>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -15752,7 +15752,7 @@
         <v>547</v>
       </c>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -15958,7 +15958,7 @@
         <v>548</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -16246,7 +16246,7 @@
         <v>549</v>
       </c>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -16382,7 +16382,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -16518,7 +16518,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -16664,7 +16664,7 @@
         <v>549</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -16802,7 +16802,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -16946,7 +16946,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -17082,7 +17082,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -17228,7 +17228,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -17432,7 +17432,7 @@
         <v>550</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -17572,7 +17572,7 @@
         <v>551</v>
       </c>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -17984,7 +17984,7 @@
         <v>553</v>
       </c>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -18138,7 +18138,7 @@
         <v>553</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -18286,7 +18286,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -18490,7 +18490,7 @@
         <v>555</v>
       </c>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -18844,7 +18844,7 @@
         <v>556</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -19094,7 +19094,7 @@
         <v>533</v>
       </c>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -19282,7 +19282,7 @@
         <v>557</v>
       </c>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -19616,7 +19616,7 @@
         <v>558</v>
       </c>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -19804,7 +19804,7 @@
         <v>559</v>
       </c>
       <c r="L331" s="4"/>
-      <c r="M331" s="2" t="s">
+      <c r="M331" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N331" s="2" t="s">
@@ -20050,7 +20050,7 @@
         <v>560</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -20470,7 +20470,7 @@
         <v>561</v>
       </c>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -20618,7 +20618,7 @@
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="4"/>
-      <c r="M348" s="2" t="s">
+      <c r="M348" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N348" s="2" t="s">
@@ -20930,7 +20930,7 @@
         <v>563</v>
       </c>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -21068,7 +21068,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="K360" s="2"/>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -21494,7 +21494,7 @@
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -21860,7 +21860,7 @@
         <v>564</v>
       </c>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -21998,7 +21998,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="K382" s="2"/>
       <c r="L382" s="4"/>
-      <c r="M382" s="2" t="s">
+      <c r="M382" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N382" s="2" t="s">
@@ -22424,7 +22424,7 @@
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -22574,7 +22574,7 @@
         <v>565</v>
       </c>
       <c r="L388" s="4"/>
-      <c r="M388" s="2" t="s">
+      <c r="M388" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N388" s="2" t="s">
@@ -22846,7 +22846,7 @@
       </c>
       <c r="K394" s="2"/>
       <c r="L394" s="4"/>
-      <c r="M394" s="2" t="s">
+      <c r="M394" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N394" s="2" t="s">
@@ -22996,7 +22996,7 @@
         <v>567</v>
       </c>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -23134,7 +23134,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -23280,7 +23280,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="K409" s="2"/>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -23712,7 +23712,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N412" s="2"/>
